--- a/app/data/Estatisticas.xlsx
+++ b/app/data/Estatisticas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1438,32 +1438,372 @@
           <t>E0</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>8 de 10</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Teste Premier League 0.5 0,2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>7 de 10</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>100</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>100</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>10000</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>8 de 10</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>6 de 10</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
         </is>

--- a/app/data/Estatisticas.xlsx
+++ b/app/data/Estatisticas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1778,32 +1778,678 @@
           <t>E0</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>6 de 10</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>8 de 10</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>7 de 10</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>4 de 10</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>4 de 10</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>6 de 10</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>100</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>6 de 10</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>100</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>6 de 10</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>100</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>4 de 10</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>100</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>6 de 10</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>100</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>7 de 10</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>100</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>4 de 10</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>100</v>
+      </c>
+      <c r="F53" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>100</v>
+      </c>
+      <c r="F54" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>6 de 10</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E55" t="n">
+        <v>100</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>100</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>7 de 10</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>100</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>4 de 10</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>100</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>5 de 10</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>E0</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>6 de 10</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>8 de 10</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>HTHG,HTAG,HTR,HS,AS,HST,AST,HC,AC,HY,AY,HR,AR</t>
         </is>
